--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -605,21 +605,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOV</t>
+          <t>JAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30/11-01/11</t>
+          <t>10/01-01/01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11/01, 12/01, 13/01, 14/01, 15/01, 16/01, 17/01, 18/01, 19/01, 20/01, 21/01, 22/01, 23/01, 24/01, 25/01, 26/01, 27/01, 28/01, 29/01, 30/01, 31/01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -605,21 +605,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEC</t>
+          <t>JAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12-01/12</t>
+          <t>10/01-01/01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11/01, 12/01, 13/01, 14/01, 15/01, 16/01, 17/01, 18/01, 19/01, 20/01, 21/01, 22/01, 23/01, 24/01, 25/01, 26/01, 27/01, 28/01, 29/01, 30/01, 31/01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -605,21 +605,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JAN</t>
+          <t>DEC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10/01-01/01</t>
+          <t>31/12-01/12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11/01, 12/01, 13/01, 14/01, 15/01, 16/01, 17/01, 18/01, 19/01, 20/01, 21/01, 22/01, 23/01, 24/01, 25/01, 26/01, 27/01, 28/01, 29/01, 30/01, 31/01</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -627,160 +627,80 @@
           <t>Akurana</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F2" t="n">
+        <v>24.11539757412399</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25.38117699910153</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.51930592991914</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6678571428571429</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.766531895777179</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.521585804132972</v>
+      </c>
+      <c r="L2" t="n">
+        <v>186.3287286612758</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.361668912848159</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.301403863432165</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.480491913746631</v>
+      </c>
+      <c r="P2" t="n">
+        <v>55.53574797843666</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2459.035747978436</v>
+      </c>
+      <c r="R2" t="n">
+        <v>960.4171759155245</v>
+      </c>
+      <c r="S2" t="n">
+        <v>86.86769991015274</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.055143755615454</v>
+      </c>
+      <c r="U2" t="n">
+        <v>131.0022012578617</v>
+      </c>
+      <c r="V2" t="n">
+        <v>24.12546618737362</v>
+      </c>
+      <c r="W2" t="n">
+        <v>85.02662323073467</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>24.86379465288699</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21.41085149404628</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>960.4171759155245</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>186.7412398921833</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.5443059299191375</v>
       </c>
     </row>
   </sheetData>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -605,21 +605,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEC</t>
+          <t>JAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12-01/12</t>
+          <t>10/01-01/01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11/01, 12/01, 13/01, 14/01, 15/01, 16/01, 17/01, 18/01, 19/01, 20/01, 21/01, 22/01, 23/01, 24/01, 25/01, 26/01, 27/01, 28/01, 29/01, 30/01, 31/01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -628,79 +628,79 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>24.11539757412399</v>
+        <v>22.83820662768031</v>
       </c>
       <c r="G2" t="n">
-        <v>25.38117699910153</v>
+        <v>23.61477582846004</v>
       </c>
       <c r="H2" t="n">
-        <v>21.51930592991914</v>
+        <v>20.69738791423002</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6678571428571429</v>
+        <v>0.3512670565302144</v>
       </c>
       <c r="J2" t="n">
-        <v>1.766531895777179</v>
+        <v>1.196296296296296</v>
       </c>
       <c r="K2" t="n">
-        <v>8.521585804132972</v>
+        <v>6.302690058479532</v>
       </c>
       <c r="L2" t="n">
-        <v>186.3287286612758</v>
+        <v>118.8674463937622</v>
       </c>
       <c r="M2" t="n">
-        <v>5.361668912848159</v>
+        <v>3.072358674463938</v>
       </c>
       <c r="N2" t="n">
-        <v>1.301403863432165</v>
+        <v>1.381247563352827</v>
       </c>
       <c r="O2" t="n">
-        <v>9.480491913746631</v>
+        <v>19.78253411306043</v>
       </c>
       <c r="P2" t="n">
-        <v>55.53574797843666</v>
+        <v>27.17270955165692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2459.035747978436</v>
+        <v>27.17270955165692</v>
       </c>
       <c r="R2" t="n">
-        <v>960.4171759155245</v>
+        <v>961.310760233918</v>
       </c>
       <c r="S2" t="n">
-        <v>86.86769991015274</v>
+        <v>88.70409356725146</v>
       </c>
       <c r="T2" t="n">
-        <v>1.055143755615454</v>
+        <v>0.6923976608187135</v>
       </c>
       <c r="U2" t="n">
-        <v>131.0022012578617</v>
+        <v>91.63009746588695</v>
       </c>
       <c r="V2" t="n">
-        <v>24.12546618737362</v>
+        <v>23.20931773879142</v>
       </c>
       <c r="W2" t="n">
-        <v>85.02662323073467</v>
+        <v>85.32007797270956</v>
       </c>
       <c r="X2" t="n">
         <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>24.86379465288699</v>
+        <v>23.80615984405458</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.41085149404628</v>
+        <v>20.58249512670565</v>
       </c>
       <c r="AA2" t="n">
-        <v>960.4171759155245</v>
+        <v>961.310760233918</v>
       </c>
       <c r="AB2" t="n">
         <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.7412398921833</v>
+        <v>116.729044834308</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5443059299191375</v>
+        <v>0.2131384015594542</v>
       </c>
     </row>
   </sheetData>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -605,21 +605,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JAN</t>
+          <t>DEC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10/01-01/01</t>
+          <t>31/12-01/12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11/01, 12/01, 13/01, 14/01, 15/01, 16/01, 17/01, 18/01, 19/01, 20/01, 21/01, 22/01, 23/01, 24/01, 25/01, 26/01, 27/01, 28/01, 29/01, 30/01, 31/01</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -627,80 +627,160 @@
           <t>Akurana</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>22.83820662768031</v>
-      </c>
-      <c r="G2" t="n">
-        <v>23.61477582846004</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.69738791423002</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3512670565302144</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.196296296296296</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.302690058479532</v>
-      </c>
-      <c r="L2" t="n">
-        <v>118.8674463937622</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.072358674463938</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.381247563352827</v>
-      </c>
-      <c r="O2" t="n">
-        <v>19.78253411306043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>27.17270955165692</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>27.17270955165692</v>
-      </c>
-      <c r="R2" t="n">
-        <v>961.310760233918</v>
-      </c>
-      <c r="S2" t="n">
-        <v>88.70409356725146</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.6923976608187135</v>
-      </c>
-      <c r="U2" t="n">
-        <v>91.63009746588695</v>
-      </c>
-      <c r="V2" t="n">
-        <v>23.20931773879142</v>
-      </c>
-      <c r="W2" t="n">
-        <v>85.32007797270956</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>23.80615984405458</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>20.58249512670565</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>961.310760233918</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>116.729044834308</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.2131384015594542</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -605,21 +605,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JAN</t>
+          <t>DEC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10/01-01/01</t>
+          <t>31/12-01/12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11/01, 12/01, 13/01, 14/01, 15/01, 16/01, 17/01, 18/01, 19/01, 20/01, 21/01, 22/01, 23/01, 24/01, 25/01, 26/01, 27/01, 28/01, 29/01, 30/01, 31/01</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,6 +783,211 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>JAN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10/01-01/01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11/01, 12/01, 13/01, 14/01, 15/01, 16/01, 17/01, 18/01, 19/01, 20/01, 21/01, 22/01, 23/01, 24/01, 25/01, 26/01, 27/01, 28/01, 29/01, 30/01, 31/01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Akurana</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,6 +988,236 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DEC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>31/12-01/12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Akurana</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,6 +1218,261 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DEC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31/12-01/12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Akurana</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,21 +605,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JAN</t>
+          <t>DEC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10/01-01/01</t>
+          <t>31/12-01/12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11/01, 12/01, 13/01, 14/01, 15/01, 16/01, 17/01, 18/01, 19/01, 20/01, 21/01, 22/01, 23/01, 24/01, 25/01, 26/01, 27/01, 28/01, 29/01, 30/01, 31/01</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -778,696 +778,6 @@
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>JAN</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10/01-01/01</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11/01, 12/01, 13/01, 14/01, 15/01, 16/01, 17/01, 18/01, 19/01, 20/01, 21/01, 22/01, 23/01, 24/01, 25/01, 26/01, 27/01, 28/01, 29/01, 30/01, 31/01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Akurana</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DEC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>31/12-01/12</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Akurana</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DEC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>31/12-01/12</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Akurana</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,6 +783,211 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>31/12-01/12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Akurana</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,6 +988,211 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DEC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>31/12-01/12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Akurana</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,6 +1193,211 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DEC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31/12-01/12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Akurana</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1398,6 +1398,186 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DEC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>31/12-01/12</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Akurana</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Akurana_Metadata_Report.xlsx
+++ b/Akurana_Metadata_Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,6 +783,186 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>JAN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10/01-01/01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11/01, 12/01, 13/01, 14/01, 15/01, 16/01, 17/01, 18/01, 19/01, 20/01, 21/01, 22/01, 23/01, 24/01, 25/01, 26/01, 27/01, 28/01, 29/01, 30/01, 31/01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Akurana</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
